--- a/Update List.xlsx
+++ b/Update List.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/18cfa10634dc4a27/GIAO AN/Bai Giang Dien Tu/BO CAI TOOL/Cai dat iMath/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="33" documentId="8_{9F8DDB87-C6C5-4195-89EA-9A837F815E92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CB8CC55F-A310-40FA-B5AA-E7408647440C}"/>
+  <xr:revisionPtr revIDLastSave="48" documentId="8_{9F8DDB87-C6C5-4195-89EA-9A837F815E92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{97D38695-9939-4DD6-934B-B5B066E1CECB}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{FF3B0E77-06A9-4EF6-B9C8-29A1B05239EB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{FF3B0E77-06A9-4EF6-B9C8-29A1B05239EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,84 +36,54 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
-  <si>
-    <t xml:space="preserve">[D12_C6_B1_11]-SA-M2. Cho 2 hộp bi. Lấy 1 bi hộp I bỏ vào hộp II, rồi lấy 1 bi từ hộp II. Tính xác suất hai bi cùng màu </t>
-  </si>
-  <si>
-    <t>[D12_C6_B1_12]-SA-M2. Cho 2 hộp bi. Lấy 1 bi hộp I bỏ vào hộp II, rồi lấy 1 bi từ hộp II. Tính xác suất hai bi khác màu</t>
-  </si>
-  <si>
-    <t>[D12_C6_B1_15]-SA-M2. X.S A|B: Tính xác suất chọn k bạn cùng giới tính có ít nhất 1 nam (hoặc 1 nữ)</t>
-  </si>
-  <si>
-    <t>[D12_C6_B2_12]-SA-M3. X.S Bayes: Tính xác suất ý kiến khách hàng không hài lòng</t>
-  </si>
-  <si>
-    <t>[D12_C6_B2_16]-M3. X.S t.phần: Cho P(A), P(A|B), P(A|B_ngang). Tính P(B).</t>
-  </si>
-  <si>
-    <t>[D12_C6_B2_17]-M3. X.S t.phần: Cho tỉ lệ tiêm vắc xin, tỉ lệ mắc bệnh nếu tiêm, tỉ lệ mắc bệnh nếu chưa tiêm. Tính  x.s mắc bệnh</t>
-  </si>
-  <si>
-    <t>[D12_C6_B2_18]-M3.  X.S t.phần: Cho tỉ lệ hút thuốc, tỉ lệ mắc bệnh nếu hút, tỉ lệ mắc bệnh nếu không hút. Tính x.s mắc bệnh</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Cập nhật iMath-THPT (ver 13.04.2025) </t>
-  </si>
-  <si>
-    <t>[D12_C6_B2_14]-M2. X.S toàn phần: Cho P(B), P(A|B), P(A|B_ngang). Tính P(A)</t>
-  </si>
-  <si>
-    <t>[D12_C6_B2_15]-M2. X.S toàn phần: Cho P(B), tỉ lệ A xảy ra nếu B, A xảy ra nếu B không xảy ra. Tính P(A).</t>
-  </si>
-  <si>
-    <t>[D12_C6_B2_13]-SA-M2.  X.S toàn phần: Tính x.s sinh viên làm việc đúng chuyên ngành</t>
-  </si>
-  <si>
-    <t>[D12_C6_B1_13]-SA-M2. X.S giao: Tính x.s sinh viên không tốt nghiệp loại X và làm việc đúng chuyên ngành</t>
-  </si>
-  <si>
-    <t>[D12_C6_B2_19]-M3.  X.S tphần: Cho 2 phòng khả năng chọn như nhau, cho tỉ lệ bệnh nhân nam ở các phòng. Tính x.s người bệnh là nam</t>
-  </si>
-  <si>
-    <t>[D12_C6_B2_20]-M3.  X.S tphần:  Lấy 1 bi từ hộp I bỏ qua hộp II. Tính x.s hai bi lấy từ hộp hai có màu nào đó.</t>
-  </si>
-  <si>
-    <t>[D12_C6_B2_21]-SA-M3. X.s tphần:  Lấy 1 bi từ hộp I bỏ qua hộp II. Tính x.s hai bi lấy từ hộp hai có màu nào đó.</t>
-  </si>
-  <si>
-    <t>[D12_C6_B2_23]-SA-M3. x.s tphần:  Cho x.s mắc ung thư, x.s chẩn đoán đúng, x.s chẩn đoán sai. Tính x.s chẩn đoán không ung thư</t>
-  </si>
-  <si>
-    <t>[D12_C6_B2_22]-M3. X.s tphần:  Cho x.s mắc ung thư, x.s chẩn đoán đúng, x.s chẩn đoán sai. Tính x.s chẩn đoán không ung thư</t>
-  </si>
-  <si>
-    <t>[D12_C6_B2_24]-TF-M3. Cho tỉ lệ nam tham gia, tỉ lệ nam đậu sát hạch, nữ đậu sát hạch. Xét Đ-S: tỉ lệ nữ, x.s nam đậu, x.s nữ đậu, x.s đậu</t>
-  </si>
-  <si>
-    <t>[D12_C6_B2_25]-TF-M3. Cho tỉ lệ ứng viên có kinh nghiệm, tỉ lệ ứng viên có kinh nghiệm vượt qua vòng phỏng vấn. Xét Đ-S: x.s giao, x.s toàn phần</t>
-  </si>
-  <si>
-    <t>[D12_C6_B2_26]-TF-M3. Cho tỉ lệ sinh viên ngành kĩ thuật-kinh thế, tỉ lệ sinh viên vượt qua kỳ thi cuối kỳ. Xét Đ-S: x.s giao, x.s toàn phần</t>
-  </si>
-  <si>
-    <t>[D12_C6_B2_27]-TF-M3. Cho tỉ lệ người có bảo hiểm, tỉ lệ người có-không có bảo hiểm và được hỗ trợ chi phí. Xét Đ-S: x.s giao, x.s toàn phần</t>
-  </si>
-  <si>
-    <t>[D12_C6_B2_28]-TF-M3. Cho tỉ lệ khách hàng thân thiết, tỉ lệ khách mua hàng. Xét Đ-S: x.s giao, x.s toàn phần</t>
-  </si>
-  <si>
-    <t>[D12_C6_B1_16]-M2. X.S giao: cho sơ đồ cây có P(A), P(B|A), P(B_|A_). Tính P(AB_) hoặc P(A_B) hoặc P(A_B_)</t>
-  </si>
-  <si>
-    <t>[D12_C6_B1_18]-M2. X.S giao: cho sơ đồ cây có P(A_), P(B|A), P(B_|A_). Tính P(AB_) hoặc P(A_B) hoặc P(A_B_)</t>
-  </si>
-  <si>
-    <t>[D12_C6_B1_17]-M2. X.S giao: cho sơ đồ cây có P(A), P(B|A_), P(B_|A_). Tính P(AB_) hoặc P(A_B) hoặc P(A_B_)</t>
-  </si>
-  <si>
-    <t>[D12_C6_B1_19]-M2. X.S giao: cho sơ đồ cây có P(A_), P(B_|A), P(B|A_). Tính P(AB_) hoặc P(A_B) hoặc P(A_B_).</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+  <si>
+    <t>[D12_C6_B1_20]-TF-M2. Cho P(A) và P(B|A). Xét Đ-S: P(A_), P(AB_), P(AB)</t>
+  </si>
+  <si>
+    <t>[D12_C6_B1_21]-M2. Chọn lần lượt 2 học sinh lên bảng. Xét Đ-S: không gian mẫu, n(A), n(A|B), n(B|A)</t>
+  </si>
+  <si>
+    <t>[D10_CX_B4_26]-TF-M2. Cho pt elip, tìm tiêu cự, tiêu điểm, điểm thuộc</t>
+  </si>
+  <si>
+    <t>[D10_CX_B4_27]-TF-M2. Cho pt Hypebol. Đọc tiêu điểm, tiêu cự, giao điểm</t>
+  </si>
+  <si>
+    <t>[D10_CX_B4_28]-TF-M2. Cho parabol. Tìm đường chuẩn, tiêu điểm, tham số tiêu, điểm thuộc</t>
+  </si>
+  <si>
+    <t>[D10_CX_B4_29]-TF-M2. Tìm pt elip biết một tiêu cự và một điểm thuộc elip</t>
+  </si>
+  <si>
+    <t>[D10_CX_B4_30]-TF-M3. Biết tiêu điểm và một điểm thuộc Hypebol tìm a,b,c, giao của H với dt khác</t>
+  </si>
+  <si>
+    <t>[D10_CX_B4_31]-TF-M3. Cho parabol đi qua một điểm. Tìm đường chuẩn, tiêu điểm, tham số tiêu, điểm thuộc</t>
+  </si>
+  <si>
+    <t>[D10_CX_B4_32]-TF-M3. Cho pt elip dạng ax^2+by^c=c, tìm tiêu cự, tiêu điểm, điểm thuộc</t>
+  </si>
+  <si>
+    <t>[D10_CX_B4_33]-TF-M3. Cho Hypebol ax^2+by^c=c. Đọc tiêu điểm, tiêu cự, giao điểm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[D10_C9_B2_59]-SA-M4. Btoán về chọn số của 2 bạn, ai chọn dc số lớn hơn thì thắng </t>
+  </si>
+  <si>
+    <t>[D10_C9_B2_60]-SA-M4. Bài toán về chia phần thưởng. Xs 2 bạn nhận thưởng giống nhau</t>
+  </si>
+  <si>
+    <t>[D10_C9_B2_61]-SA-M4. XS chọn k người trong đó có đúng 1 cặp vợ chồng</t>
+  </si>
+  <si>
+    <t>[D10_C9_B2_62]-SA-M4. XS chọn số chia hết cho 11 có tận cùng là a</t>
+  </si>
+  <si>
+    <t>[D10_C9_B2_63]-SA-M4. XS để tổng k thẻ được chọn có 2 thẻ có tổng bằng a</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cập nhật iMath-THPT (ver 16.04.2025) </t>
   </si>
 </sst>
 </file>
@@ -143,12 +113,10 @@
       <family val="1"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <charset val="163"/>
-      <scheme val="minor"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -171,11 +139,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -514,150 +487,200 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{248E14BE-2A91-4E25-99C1-5324502C439C}">
-  <dimension ref="A1:A27"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="124.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="124.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B1" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="B8" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="B12" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1"/>
+    </row>
+    <row r="18" spans="1:2" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1"/>
+    </row>
+    <row r="19" spans="1:2" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1"/>
+    </row>
+    <row r="20" spans="1:2" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    <row r="24" spans="1:2" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+    <row r="26" spans="1:2" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" ht="22.05" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="1:2" ht="22.05" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Update List.xlsx
+++ b/Update List.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/18cfa10634dc4a27/GIAO AN/Bai Giang Dien Tu/BO CAI TOOL/Cai dat iMath/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/18cfa10634dc4a27/GIAO AN/Bai Giang Dien Tu/BO CAI TOOL/Cai dat iMath/iMath-THPT/_internal/UPDATE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="48" documentId="8_{9F8DDB87-C6C5-4195-89EA-9A837F815E92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{97D38695-9939-4DD6-934B-B5B066E1CECB}"/>
+  <xr:revisionPtr revIDLastSave="58" documentId="8_{9F8DDB87-C6C5-4195-89EA-9A837F815E92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9BCF761B-CDFE-462D-B8AB-8F20519D08D0}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{FF3B0E77-06A9-4EF6-B9C8-29A1B05239EB}"/>
   </bookViews>
@@ -36,61 +36,94 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
-  <si>
-    <t>[D12_C6_B1_20]-TF-M2. Cho P(A) và P(B|A). Xét Đ-S: P(A_), P(AB_), P(AB)</t>
-  </si>
-  <si>
-    <t>[D12_C6_B1_21]-M2. Chọn lần lượt 2 học sinh lên bảng. Xét Đ-S: không gian mẫu, n(A), n(A|B), n(B|A)</t>
-  </si>
-  <si>
-    <t>[D10_CX_B4_26]-TF-M2. Cho pt elip, tìm tiêu cự, tiêu điểm, điểm thuộc</t>
-  </si>
-  <si>
-    <t>[D10_CX_B4_27]-TF-M2. Cho pt Hypebol. Đọc tiêu điểm, tiêu cự, giao điểm</t>
-  </si>
-  <si>
-    <t>[D10_CX_B4_28]-TF-M2. Cho parabol. Tìm đường chuẩn, tiêu điểm, tham số tiêu, điểm thuộc</t>
-  </si>
-  <si>
-    <t>[D10_CX_B4_29]-TF-M2. Tìm pt elip biết một tiêu cự và một điểm thuộc elip</t>
-  </si>
-  <si>
-    <t>[D10_CX_B4_30]-TF-M3. Biết tiêu điểm và một điểm thuộc Hypebol tìm a,b,c, giao của H với dt khác</t>
-  </si>
-  <si>
-    <t>[D10_CX_B4_31]-TF-M3. Cho parabol đi qua một điểm. Tìm đường chuẩn, tiêu điểm, tham số tiêu, điểm thuộc</t>
-  </si>
-  <si>
-    <t>[D10_CX_B4_32]-TF-M3. Cho pt elip dạng ax^2+by^c=c, tìm tiêu cự, tiêu điểm, điểm thuộc</t>
-  </si>
-  <si>
-    <t>[D10_CX_B4_33]-TF-M3. Cho Hypebol ax^2+by^c=c. Đọc tiêu điểm, tiêu cự, giao điểm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[D10_C9_B2_59]-SA-M4. Btoán về chọn số của 2 bạn, ai chọn dc số lớn hơn thì thắng </t>
-  </si>
-  <si>
-    <t>[D10_C9_B2_60]-SA-M4. Bài toán về chia phần thưởng. Xs 2 bạn nhận thưởng giống nhau</t>
-  </si>
-  <si>
-    <t>[D10_C9_B2_61]-SA-M4. XS chọn k người trong đó có đúng 1 cặp vợ chồng</t>
-  </si>
-  <si>
-    <t>[D10_C9_B2_62]-SA-M4. XS chọn số chia hết cho 11 có tận cùng là a</t>
-  </si>
-  <si>
-    <t>[D10_C9_B2_63]-SA-M4. XS để tổng k thẻ được chọn có 2 thẻ có tổng bằng a</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Cập nhật iMath-THPT (ver 16.04.2025) </t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+  <si>
+    <t xml:space="preserve"> Cập nhật iMath-THPT (ver 05.05.2025) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[D11_C2_B2_21]-M1. CSC có 2 số hạng liên tiếp. Tìm d </t>
+  </si>
+  <si>
+    <t>[D11_C2_B2_22]-M2. CSC có 2 số hạng liên tiếp. Tìm u tiếp theo.</t>
+  </si>
+  <si>
+    <t>[D11_C2_B2_23]-M2. CSC có u_1 và u_n. Tìm d.</t>
+  </si>
+  <si>
+    <t>[D12_C5_B1_36]-M2.  Viết phương trình mặt phẳng qua điểm và vuông góc với d(PTCT).</t>
+  </si>
+  <si>
+    <t>[D12_C5_B1_37]-M2.  Viết phương trình mặt phẳng qua điểm và vuông góc với d(PTTS).</t>
+  </si>
+  <si>
+    <t>[D11_C7_B2_58]-M3. Đạo hàm k/sinax</t>
+  </si>
+  <si>
+    <t>[D11_C7_B2_59]-M3. Đạo hàm k/cosax</t>
+  </si>
+  <si>
+    <t>[D11_C7_B3_06]-SA-M2. Cho hàm số bậc hai. Viết tiếp tuyến biết hệ số góc</t>
+  </si>
+  <si>
+    <t>[D11_C7_B3_07]-SA-M2. Cho hàm số bậc ba. Viết PTTT biết hệ số góc</t>
+  </si>
+  <si>
+    <t>[D11_C7_B3_08]-SA-M2. Cho hàm số y=(ax+b)/(cx+d). Viết PTTT biết hệ số góc</t>
+  </si>
+  <si>
+    <t>[D11_C7_B3_09]-SA-M2. Cho hàm số bậc hai. Viết PTTT biết hệ số góc</t>
+  </si>
+  <si>
+    <t>[D11_C7_B3_10]-SA-M2. Cho hàm số bậc ba. Viết PTTT biết hệ số góc</t>
+  </si>
+  <si>
+    <t>[D11_C7_B3_11]-SA-M2. Cho hàm số y=(ax+b)/(cx+d). Viết PTTT biết hệ số góc</t>
+  </si>
+  <si>
+    <t>[D11_C8_B4_10]-SA-M4. Lăng trụ ABC.A'B'C'. Tính k.c từ điểm đến mặt</t>
+  </si>
+  <si>
+    <t>[D11_C8_B4_11]-SA-M4. Lăng trụ ABC.A'B'C', tam giác vuông. Tính k.c giữa hai đường chéo nhau</t>
+  </si>
+  <si>
+    <t>[D11_C8_B4_12]-SA-M3. L.trụ đứng tam giác có 3 cạnh. Tính khoảng cách cạnh bên và cạnh đáy</t>
+  </si>
+  <si>
+    <t>[D11_C8_B4_13]-SA-M3. L.trụ đứng , tam giác có 3 cạnh. Tính k.c giữa cạnh bên và cạnh đáy</t>
+  </si>
+  <si>
+    <t>[D11_C8_B4_14]-SA-M3. H.chóp S.ABC, đáy tam giác đều. Tính d(A,(SBC))</t>
+  </si>
+  <si>
+    <t>[D11_C8_B4_15]-SA-M3. H.chóp S.ABC, đáy tam giác vuông. Tính d(A,(SBC))</t>
+  </si>
+  <si>
+    <t>[D11_C8_B4_16]-M2. H.chóp S.ABC, đáy tam giác vuông cân. Tính d(A,(SBC))</t>
+  </si>
+  <si>
+    <t>[D11_C8_B6_13]-M2. H.chóp đáy tam giác vuông cân, mặt bên vuông góc đáy. Tính V</t>
+  </si>
+  <si>
+    <t>[D11_C8_B6_14]-M2. H.chóp đáy tam giác đều, mặt bên vuông góc đáy. Tính V.</t>
+  </si>
+  <si>
+    <t>[D11_C8_B6_15]-M2. H.chóp đáy h.vuông, cạnh bên v.g đáy. Tính V</t>
+  </si>
+  <si>
+    <t>[D11_C8_B6_16]-M2. H.chóp đáy h.chữ nhật, cạnh bên v.g đáy. Tính V.</t>
+  </si>
+  <si>
+    <t>[D11_C8_B6_17]-M2. H.chóp đáy t.giác vuông cân, cạnh bên v.g đáy. Tính V</t>
+  </si>
+  <si>
+    <t>[D11_C8_B6_18]-M2. H.chóp đáy h.chữ nhật có cạnh đáy và cạnh bên SB. Tính V</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -118,13 +151,30 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -139,15 +189,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -489,196 +543,231 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{248E14BE-2A91-4E25-99C1-5324502C439C}">
   <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:XFD34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="124.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.88671875" style="3"/>
+    <col min="1" max="1" width="3.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="91.6640625" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:2" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="4"/>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
-        <v>6</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <v>7</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
-        <v>8</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
+      <c r="B16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
+    </row>
+    <row r="17" spans="1:2" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
         <v>16</v>
       </c>
-      <c r="B17" s="1"/>
-    </row>
-    <row r="18" spans="1:2" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
+      <c r="B17" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
         <v>17</v>
       </c>
-      <c r="B18" s="1"/>
-    </row>
-    <row r="19" spans="1:2" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="4">
+      <c r="B18" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
         <v>18</v>
       </c>
-      <c r="B19" s="1"/>
-    </row>
-    <row r="20" spans="1:2" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="4">
+      <c r="B19" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="4">
+      <c r="B20" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="4">
+      <c r="B21" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="4">
+      <c r="B22" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="4">
+      <c r="B23" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="4">
+      <c r="B24" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="5">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="4">
+      <c r="B25" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="5">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" ht="22.05" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="B26" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="5">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
